--- a/Python Project/learning pandas/Customer Call List.xlsx
+++ b/Python Project/learning pandas/Customer Call List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Pandas Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PortfolioProjects\Python Project\learning pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{890D025C-C355-436F-87C5-736415E1B8DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D4759-62E4-49D8-B3F4-E19A070BC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call List" sheetId="1" r:id="rId1"/>
@@ -1089,19 +1089,12 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="21.44140625" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
